--- a/Original Files/Eliot 10174064 - OR – Surg Tech ORIG.xlsx
+++ b/Original Files/Eliot 10174064 - OR – Surg Tech ORIG.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FDFBA16-EE5C-45BA-953C-B88330B2D2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD1D3CB1-AEC6-4F83-A889-89183BC3701E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C434CF0-5AF8-4A17-AE1F-743C874DB02B}"/>
+    <workbookView xWindow="-28920" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{13F58E70-D3F6-4652-8D23-C171D472A208}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>PO Box 674907</t>
   </si>
   <si>
-    <t>Dallas, TX 75267-4907</t>
+    <t>Dallas, TX 7526 - 4907</t>
   </si>
   <si>
     <t>PNC Bank. N.A</t>
@@ -202,14 +202,14 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="\$#,##0.00;[Red]&quot;($&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -551,8 +551,12 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -595,20 +599,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1676400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>96520</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8E45F3-5403-9454-3396-9DD77DDF5028}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A309E510-70D6-CABE-0F1F-3A72EA1A769A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -654,39 +658,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -738,7 +742,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -849,13 +853,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -864,6 +861,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -928,41 +932,64 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7941270C-33BF-4DD3-B508-2DD58F819A28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CCE1C3-DF74-4031-9372-48DE0A6FDB35}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="52"/>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -979,7 +1006,7 @@
       <c r="N1" s="53"/>
       <c r="O1" s="56"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="48"/>
       <c r="G2" s="7" t="s">
         <v>1</v>
@@ -989,7 +1016,7 @@
       </c>
       <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="48"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
@@ -999,7 +1026,7 @@
       </c>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="48"/>
       <c r="G4" s="7" t="s">
         <v>3</v>
@@ -1009,7 +1036,7 @@
       </c>
       <c r="O4" s="45"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="48"/>
       <c r="G5" s="7" t="s">
         <v>4</v>
@@ -1019,7 +1046,7 @@
       </c>
       <c r="O5" s="45"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="48"/>
       <c r="G6" s="7" t="s">
         <v>5</v>
@@ -1029,18 +1056,18 @@
       </c>
       <c r="O6" s="45"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="48"/>
       <c r="G7" s="7"/>
       <c r="J7" s="2"/>
       <c r="O7" s="45"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="48"/>
       <c r="J8" s="2"/>
       <c r="O8" s="45"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="48"/>
       <c r="G9" s="8" t="s">
         <v>6</v>
@@ -1050,14 +1077,14 @@
       </c>
       <c r="O9" s="45"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="48"/>
       <c r="J10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="O10" s="45"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="48"/>
       <c r="B11" s="9" t="s">
         <v>0</v>
@@ -1067,7 +1094,7 @@
       </c>
       <c r="O11" s="45"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="48"/>
       <c r="B12" s="9" t="s">
         <v>16</v>
@@ -1075,7 +1102,7 @@
       <c r="J12" s="4"/>
       <c r="O12" s="45"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
       <c r="B13" s="9" t="s">
         <v>17</v>
@@ -1085,7 +1112,7 @@
       </c>
       <c r="O13" s="45"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="48"/>
       <c r="B14" s="9" t="s">
         <v>18</v>
@@ -1095,7 +1122,7 @@
       </c>
       <c r="O14" s="45"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="48"/>
       <c r="B15" s="9"/>
       <c r="J15" s="2" t="s">
@@ -1103,13 +1130,13 @@
       </c>
       <c r="O15" s="45"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="48"/>
       <c r="B16" s="9"/>
       <c r="J16" s="2"/>
       <c r="O16" s="45"/>
     </row>
-    <row r="17" spans="1:15" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="48"/>
       <c r="B17" s="1" t="s">
         <v>15</v>
@@ -1124,11 +1151,11 @@
       <c r="J17" s="1"/>
       <c r="O17" s="45"/>
     </row>
-    <row r="18" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="48"/>
       <c r="O18" s="45"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="48"/>
       <c r="C19" s="10" t="s">
         <v>16</v>
@@ -1142,7 +1169,7 @@
       </c>
       <c r="O19" s="45"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="48"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1154,11 +1181,11 @@
       </c>
       <c r="O20" s="45"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="48"/>
       <c r="O21" s="45"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="48"/>
       <c r="C22" s="11" t="s">
         <v>21</v>
@@ -1178,7 +1205,7 @@
       <c r="J22" s="34"/>
       <c r="O22" s="45"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="48"/>
       <c r="C23" s="14" t="s">
         <v>23</v>
@@ -1198,7 +1225,7 @@
       <c r="J23" s="34"/>
       <c r="O23" s="45"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="48"/>
       <c r="C24" s="19" t="s">
         <v>25</v>
@@ -1212,11 +1239,11 @@
       </c>
       <c r="O24" s="45"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="48"/>
       <c r="O25" s="45"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="48"/>
       <c r="D26" s="25" t="s">
         <v>26</v>
@@ -1229,7 +1256,7 @@
       </c>
       <c r="O26" s="45"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="48"/>
       <c r="D27" s="26" t="s">
         <v>27</v>
@@ -1242,7 +1269,7 @@
       </c>
       <c r="O27" s="45"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="48"/>
       <c r="D28" s="26" t="s">
         <v>28</v>
@@ -1255,7 +1282,7 @@
       </c>
       <c r="O28" s="45"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="48"/>
       <c r="D29" s="27" t="s">
         <v>29</v>
@@ -1268,7 +1295,7 @@
       </c>
       <c r="O29" s="45"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="48"/>
       <c r="D30" s="25" t="s">
         <v>30</v>
@@ -1281,7 +1308,7 @@
       </c>
       <c r="O30" s="45"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="48"/>
       <c r="D31" s="26" t="s">
         <v>31</v>
@@ -1294,7 +1321,7 @@
       </c>
       <c r="O31" s="45"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="48"/>
       <c r="D32" s="28" t="s">
         <v>29</v>
@@ -1307,7 +1334,7 @@
       </c>
       <c r="O32" s="45"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="48"/>
       <c r="D33" s="32" t="s">
         <v>25</v>
@@ -1320,11 +1347,11 @@
       </c>
       <c r="O33" s="45"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="48"/>
       <c r="O34" s="45"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="48"/>
       <c r="D35" s="11" t="s">
         <v>32</v>
@@ -1337,7 +1364,7 @@
       </c>
       <c r="O35" s="45"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="48"/>
       <c r="D36" s="14" t="s">
         <v>33</v>
@@ -1350,7 +1377,7 @@
       </c>
       <c r="O36" s="45"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="48"/>
       <c r="D37" s="31" t="s">
         <v>25</v>
@@ -1363,15 +1390,15 @@
       </c>
       <c r="O37" s="45"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="48"/>
       <c r="O38" s="45"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="48"/>
       <c r="O39" s="45"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="49" t="s">
         <v>21</v>
       </c>
@@ -1416,7 +1443,7 @@
       </c>
       <c r="O40" s="45"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="50" t="s">
         <v>23</v>
       </c>
@@ -1461,7 +1488,7 @@
       </c>
       <c r="O41" s="45"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="50" t="s">
         <v>23</v>
       </c>
@@ -1506,7 +1533,7 @@
       </c>
       <c r="O42" s="45"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="50" t="s">
         <v>23</v>
       </c>
@@ -1551,7 +1578,7 @@
       </c>
       <c r="O43" s="45"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="50" t="s">
         <v>23</v>
       </c>
@@ -1596,7 +1623,7 @@
       </c>
       <c r="O44" s="45"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="50" t="s">
         <v>23</v>
       </c>
@@ -1641,7 +1668,7 @@
       </c>
       <c r="O45" s="45"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="50" t="s">
         <v>23</v>
       </c>
@@ -1686,7 +1713,7 @@
       </c>
       <c r="O46" s="45"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="50" t="s">
         <v>23</v>
       </c>
@@ -1731,7 +1758,7 @@
       </c>
       <c r="O47" s="45"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="50" t="s">
         <v>23</v>
       </c>
@@ -1776,7 +1803,7 @@
       </c>
       <c r="O48" s="45"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="50" t="s">
         <v>23</v>
       </c>
@@ -1821,7 +1848,7 @@
       </c>
       <c r="O49" s="45"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="50" t="s">
         <v>23</v>
       </c>
@@ -1866,7 +1893,7 @@
       </c>
       <c r="O50" s="45"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="50" t="s">
         <v>23</v>
       </c>
@@ -1911,7 +1938,7 @@
       </c>
       <c r="O51" s="45"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="50" t="s">
         <v>23</v>
       </c>
@@ -1956,7 +1983,7 @@
       </c>
       <c r="O52" s="45"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="50" t="s">
         <v>23</v>
       </c>
@@ -2001,11 +2028,11 @@
       </c>
       <c r="O53" s="45"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="48"/>
       <c r="O54" s="45"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="51"/>
       <c r="B55" s="46"/>
       <c r="C55" s="46"/>
@@ -2032,278 +2059,7 @@
     <mergeCell ref="I23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008A7B740158B06348BBFDD0A82FAE521C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9ca6de6a992593ec3295afdb73980d5">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45be6600-ce97-4f91-b2b5-90c5c801df6a" xmlns:ns3="4ff60255-49bc-4e52-8060-8afe9711eecb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c3625fcdb5b97911e04df756c65f947" ns2:_="" ns3:_="">
-    <xsd:import namespace="45be6600-ce97-4f91-b2b5-90c5c801df6a"/>
-    <xsd:import namespace="4ff60255-49bc-4e52-8060-8afe9711eecb"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45be6600-ce97-4f91-b2b5-90c5c801df6a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="94b3629e-20aa-442c-aac2-3c67759175e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="24" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ff60255-49bc-4e52-8060-8afe9711eecb" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6c69ecb4-97a0-434f-9afd-668c5bcfe455}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="4ff60255-49bc-4e52-8060-8afe9711eecb">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B562BC3B-7D05-4736-9290-C08DEB69BD69}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{775B9CEC-2B2B-4E4F-8657-2A5E8450716B}"/>
 </file>